--- a/Plan/Table/Live_Data/09.Monster_Table.xlsx
+++ b/Plan/Table/Live_Data/09.Monster_Table.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D58CBDCA-E256-4101-9471-948871FB31A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C682299C-095C-4E2B-917E-636C67A8C395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E4C43324-2EBF-4822-8569-C8C7087FD1C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C3DE7F7C-00FE-4CA6-BFA1-BE84E40205AE}"/>
   </bookViews>
   <sheets>
     <sheet name="09.Monster_Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -44,9 +44,6 @@
     <t>name_id</t>
   </si>
   <si>
-    <t>descriton</t>
-  </si>
-  <si>
     <t>trait_id_1</t>
   </si>
   <si>
@@ -56,6 +53,12 @@
     <t>trait_id_3</t>
   </si>
   <si>
+    <t>trait_id_4</t>
+  </si>
+  <si>
+    <t>trait_id_5</t>
+  </si>
+  <si>
     <t>item_id_w</t>
   </si>
   <si>
@@ -78,51 +81,6 @@
   </si>
   <si>
     <t>magic_armor</t>
-  </si>
-  <si>
-    <t>기본형태의 고블린</t>
-  </si>
-  <si>
-    <t>검을 든 고블린</t>
-  </si>
-  <si>
-    <t>활을 든 고블린</t>
-  </si>
-  <si>
-    <t>기본 고블린 약화 1</t>
-  </si>
-  <si>
-    <t>기본 고블린 약화 2</t>
-  </si>
-  <si>
-    <t>기본 고블린 약화 3</t>
-  </si>
-  <si>
-    <t>기본 고블린 약화 4</t>
-  </si>
-  <si>
-    <t>고블린 검사 약화 1</t>
-  </si>
-  <si>
-    <t>고블린 검사 약화 2</t>
-  </si>
-  <si>
-    <t>고블린 검사 약화 3</t>
-  </si>
-  <si>
-    <t>고블린 검사 약화 4</t>
-  </si>
-  <si>
-    <t>고블린 아처 약화 1</t>
-  </si>
-  <si>
-    <t>고블린 아처 약화 2</t>
-  </si>
-  <si>
-    <t>고블린 아처 약화 3</t>
-  </si>
-  <si>
-    <t>고블린 아처 약화 4</t>
   </si>
   <si>
     <t>recovery</t>
@@ -541,16 +499,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC388CCF-5A0A-40C2-A1F2-AFB812558B14}">
-  <dimension ref="A1:Z16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E9B926-CC9F-4933-9F3E-1DA3F6F1504C}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Z1048576"/>
+      <selection sqref="A1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,51 +553,54 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -662,63 +624,66 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L2">
+        <v>2500</v>
+      </c>
+      <c r="M2">
         <v>2000</v>
-      </c>
-      <c r="M2">
-        <v>2750</v>
       </c>
       <c r="N2">
         <v>2750</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>5</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>120</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>100</v>
       </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
       <c r="U2">
         <v>1</v>
       </c>
       <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
         <v>80</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>110</v>
       </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -742,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>2500</v>
@@ -754,51 +719,54 @@
         <v>2500</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>10</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>125</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>100</v>
       </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
         <v>80</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>110</v>
       </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -822,66 +790,69 @@
         <v>0</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>2000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3500</v>
-      </c>
-      <c r="M4">
-        <v>2250</v>
       </c>
       <c r="N4">
         <v>2250</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>5</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>120</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>75</v>
       </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
         <v>240</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>110</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
+      <c r="C5">
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -902,66 +873,69 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L5">
+        <v>2500</v>
+      </c>
+      <c r="M5">
         <v>2000</v>
-      </c>
-      <c r="M5">
-        <v>2750</v>
       </c>
       <c r="N5">
         <v>2750</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>5</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>120</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>100</v>
       </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
       <c r="U5">
         <v>1</v>
       </c>
       <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
         <v>80</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>110</v>
       </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
+      <c r="C6">
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -982,66 +956,69 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L6">
+        <v>2500</v>
+      </c>
+      <c r="M6">
         <v>2000</v>
-      </c>
-      <c r="M6">
-        <v>2750</v>
       </c>
       <c r="N6">
         <v>2750</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>5</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>120</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>100</v>
       </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
       <c r="U6">
         <v>1</v>
       </c>
       <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
         <v>80</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>110</v>
       </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
+      <c r="C7">
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1062,66 +1039,69 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L7">
+        <v>2500</v>
+      </c>
+      <c r="M7">
         <v>2000</v>
-      </c>
-      <c r="M7">
-        <v>2750</v>
       </c>
       <c r="N7">
         <v>2750</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>5</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>120</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>100</v>
       </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
       <c r="U7">
         <v>1</v>
       </c>
       <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
         <v>80</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>110</v>
       </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
+      <c r="C8">
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1142,66 +1122,69 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L8">
+        <v>2500</v>
+      </c>
+      <c r="M8">
         <v>2000</v>
-      </c>
-      <c r="M8">
-        <v>2750</v>
       </c>
       <c r="N8">
         <v>2750</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>5</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>120</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>100</v>
       </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
       <c r="U8">
         <v>1</v>
       </c>
       <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
         <v>80</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>110</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
+      <c r="C9">
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1222,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>2500</v>
@@ -1234,54 +1217,57 @@
         <v>2500</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>10</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>125</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>100</v>
       </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
       <c r="U9">
         <v>1</v>
       </c>
       <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
         <v>80</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>110</v>
       </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
+      <c r="C10">
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1302,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>2500</v>
@@ -1314,54 +1300,57 @@
         <v>2500</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>10</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>125</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>100</v>
       </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
       <c r="U10">
         <v>1</v>
       </c>
       <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
         <v>80</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>110</v>
       </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
+      <c r="C11">
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1382,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>2500</v>
@@ -1394,54 +1383,57 @@
         <v>2500</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>10</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>125</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>100</v>
       </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
       <c r="U11">
         <v>1</v>
       </c>
       <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
         <v>80</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>110</v>
       </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
+      <c r="C12">
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1462,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>2500</v>
@@ -1474,54 +1466,57 @@
         <v>2500</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>10</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>125</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>100</v>
       </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
       <c r="U12">
         <v>1</v>
       </c>
       <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
         <v>80</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>110</v>
       </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
+      <c r="C13">
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1542,66 +1537,69 @@
         <v>0</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>2000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>3500</v>
-      </c>
-      <c r="M13">
-        <v>2250</v>
       </c>
       <c r="N13">
         <v>2250</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>5</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>120</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>75</v>
       </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
       <c r="U13">
         <v>1</v>
       </c>
       <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
         <v>240</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>110</v>
       </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
+      <c r="C14">
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1622,66 +1620,69 @@
         <v>0</v>
       </c>
       <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>2000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>3500</v>
-      </c>
-      <c r="M14">
-        <v>2250</v>
       </c>
       <c r="N14">
         <v>2250</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>5</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>120</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>75</v>
       </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
       <c r="U14">
         <v>1</v>
       </c>
       <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
         <v>240</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>110</v>
       </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>27</v>
+      <c r="C15">
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1702,66 +1703,69 @@
         <v>0</v>
       </c>
       <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>2000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>3500</v>
-      </c>
-      <c r="M15">
-        <v>2250</v>
       </c>
       <c r="N15">
         <v>2250</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>5</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>120</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>75</v>
       </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
       <c r="U15">
         <v>1</v>
       </c>
       <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
         <v>240</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>110</v>
       </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>28</v>
+      <c r="C16">
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1782,51 +1786,54 @@
         <v>0</v>
       </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>2000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>3500</v>
-      </c>
-      <c r="M16">
-        <v>2250</v>
       </c>
       <c r="N16">
         <v>2250</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>5</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>120</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>75</v>
       </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
       <c r="U16">
         <v>1</v>
       </c>
       <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
         <v>240</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>110</v>
       </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
         <v>0</v>
       </c>
     </row>

--- a/Plan/Table/Live_Data/09.Monster_Table.xlsx
+++ b/Plan/Table/Live_Data/09.Monster_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C682299C-095C-4E2B-917E-636C67A8C395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28780FB0-5AA1-446F-9CCE-094F8F3D84EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C3DE7F7C-00FE-4CA6-BFA1-BE84E40205AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AAABE07C-5421-4D88-81A1-9B4875781B5E}"/>
   </bookViews>
   <sheets>
     <sheet name="09.Monster_Table" sheetId="1" r:id="rId1"/>
@@ -499,9 +499,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E9B926-CC9F-4933-9F3E-1DA3F6F1504C}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC5CCA0-67F7-44D1-B5E6-D65D3B327AEB}">
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AA1048576"/>
@@ -627,16 +626,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2500</v>
+        <v>90</v>
       </c>
       <c r="M2">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="N2">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -710,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="M3">
-        <v>2500</v>
+        <v>11</v>
       </c>
       <c r="N3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -793,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="M4">
-        <v>3500</v>
+        <v>10</v>
       </c>
       <c r="N4">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -876,16 +875,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2500</v>
+        <v>90</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="N5">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -959,16 +958,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2500</v>
+        <v>90</v>
       </c>
       <c r="M6">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="N6">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1042,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2500</v>
+        <v>90</v>
       </c>
       <c r="M7">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="N7">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1125,16 +1124,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2500</v>
+        <v>90</v>
       </c>
       <c r="M8">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="N8">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1208,16 +1207,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="M9">
-        <v>2500</v>
+        <v>11</v>
       </c>
       <c r="N9">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1291,16 +1290,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>2500</v>
+        <v>11</v>
       </c>
       <c r="N10">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1374,16 +1373,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>2500</v>
+        <v>11</v>
       </c>
       <c r="N11">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1457,16 +1456,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>2500</v>
+        <v>11</v>
       </c>
       <c r="N12">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1540,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="M13">
-        <v>3500</v>
+        <v>10</v>
       </c>
       <c r="N13">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1623,16 +1622,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="M14">
-        <v>3500</v>
+        <v>10</v>
       </c>
       <c r="N14">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1706,16 +1705,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="M15">
-        <v>3500</v>
+        <v>10</v>
       </c>
       <c r="N15">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1789,16 +1788,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="M16">
-        <v>3500</v>
+        <v>10</v>
       </c>
       <c r="N16">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1834,6 +1833,89 @@
         <v>0</v>
       </c>
       <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>72</v>
+      </c>
+      <c r="D17">
+        <v>54</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>200</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>15</v>
+      </c>
+      <c r="S17">
+        <v>130</v>
+      </c>
+      <c r="T17">
+        <v>100</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>100</v>
+      </c>
+      <c r="X17">
+        <v>110</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
         <v>0</v>
       </c>
     </row>

--- a/Plan/Table/Live_Data/09.Monster_Table.xlsx
+++ b/Plan/Table/Live_Data/09.Monster_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28780FB0-5AA1-446F-9CCE-094F8F3D84EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15FFC04E-0112-4B37-ACF4-AB4C348C1043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AAABE07C-5421-4D88-81A1-9B4875781B5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8CAC9B2D-78A7-4860-98D2-AFAFEB7FD5DB}"/>
   </bookViews>
   <sheets>
     <sheet name="09.Monster_Table" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>name_id</t>
+  </si>
+  <si>
+    <t>des_id</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_1</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_1</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_2</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_2</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_3</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_3</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_4</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_4</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_5</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_5</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_6</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_6</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_7</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_7</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_8</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_8</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_9</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_9</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_10</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_10</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_11</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_11</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_12</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_12</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_13</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_13</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_14</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_14</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_15</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_15</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_16</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_16</t>
   </si>
   <si>
     <t>trait_id_1</t>
@@ -499,16 +598,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC5CCA0-67F7-44D1-B5E6-D65D3B327AEB}">
-  <dimension ref="A1:AA17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990ED6FE-6415-4139-84F6-3EAD94D10E86}">
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AA1048576"/>
+      <selection sqref="A1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,170 +618,176 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>11041</v>
+      </c>
+      <c r="J2">
+        <v>12022</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>90</v>
+      </c>
+      <c r="N2">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>120</v>
+      </c>
+      <c r="U2">
+        <v>100</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>80</v>
+      </c>
+      <c r="Y2">
+        <v>110</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>90</v>
-      </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>5</v>
-      </c>
-      <c r="S2">
-        <v>120</v>
-      </c>
-      <c r="T2">
-        <v>100</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>80</v>
-      </c>
-      <c r="X2">
-        <v>110</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -700,23 +805,23 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>11042</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12022</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
         <v>100</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>11</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
         <v>0</v>
       </c>
@@ -727,45 +832,48 @@
         <v>0</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>10</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>125</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>100</v>
       </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
       <c r="V3">
         <v>1</v>
       </c>
       <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
         <v>80</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>110</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -783,23 +891,23 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>11043</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12022</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
         <v>70</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>10</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
       <c r="O4">
         <v>0</v>
       </c>
@@ -810,49 +918,52 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
         <v>120</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>75</v>
       </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
       <c r="V4">
         <v>1</v>
       </c>
       <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
         <v>240</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>110</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
         <v>22</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
@@ -866,23 +977,23 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>11041</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12021</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
         <v>90</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>10</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
       <c r="O5">
         <v>0</v>
       </c>
@@ -893,49 +1004,52 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
         <v>120</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>100</v>
       </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
       <c r="V5">
         <v>1</v>
       </c>
       <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
         <v>80</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>110</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
         <v>34</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
@@ -949,23 +1063,23 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>11041</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12021</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
         <v>90</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>10</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
         <v>0</v>
       </c>
@@ -976,49 +1090,52 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
         <v>120</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>100</v>
       </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
       <c r="V6">
         <v>1</v>
       </c>
       <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
         <v>80</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>110</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
         <v>28</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7">
         <v>0</v>
       </c>
@@ -1032,23 +1149,23 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>11041</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12021</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
         <v>90</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>10</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
         <v>0</v>
       </c>
@@ -1059,49 +1176,52 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
         <v>120</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>100</v>
       </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
       <c r="V7">
         <v>1</v>
       </c>
       <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
         <v>80</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>110</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
         <v>40</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
         <v>0</v>
       </c>
@@ -1115,23 +1235,23 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>11041</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12021</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
         <v>90</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>10</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8">
         <v>0</v>
       </c>
@@ -1142,49 +1262,52 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
         <v>120</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>100</v>
       </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
       <c r="V8">
         <v>1</v>
       </c>
       <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
         <v>80</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>110</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
         <v>22</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9">
         <v>0</v>
       </c>
@@ -1198,23 +1321,23 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>11042</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12021</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
         <v>100</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>11</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>0</v>
       </c>
@@ -1225,49 +1348,52 @@
         <v>0</v>
       </c>
       <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>10</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>125</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>100</v>
       </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
       <c r="V9">
         <v>1</v>
       </c>
       <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
         <v>80</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>110</v>
       </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
         <v>34</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
         <v>0</v>
       </c>
@@ -1281,23 +1407,23 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>11042</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12021</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
         <v>100</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>11</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
       <c r="O10">
         <v>0</v>
       </c>
@@ -1308,49 +1434,52 @@
         <v>0</v>
       </c>
       <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>10</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>125</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>100</v>
       </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
       <c r="V10">
         <v>1</v>
       </c>
       <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
         <v>80</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>110</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
         <v>28</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
       <c r="E11">
         <v>0</v>
       </c>
@@ -1364,23 +1493,23 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>11042</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12021</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
         <v>100</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>11</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
       <c r="O11">
         <v>0</v>
       </c>
@@ -1391,49 +1520,52 @@
         <v>0</v>
       </c>
       <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>10</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>125</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>100</v>
       </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
       <c r="V11">
         <v>1</v>
       </c>
       <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
         <v>80</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>110</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
         <v>40</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
       <c r="E12">
         <v>0</v>
       </c>
@@ -1447,23 +1579,23 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>11042</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>12021</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
         <v>100</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>11</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
       <c r="O12">
         <v>0</v>
       </c>
@@ -1474,49 +1606,52 @@
         <v>0</v>
       </c>
       <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>10</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>125</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>100</v>
       </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
       <c r="V12">
         <v>1</v>
       </c>
       <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
         <v>80</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>110</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
         <v>22</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
       <c r="E13">
         <v>0</v>
       </c>
@@ -1530,23 +1665,23 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>11044</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12021</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
         <v>70</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>10</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
       <c r="O13">
         <v>0</v>
       </c>
@@ -1557,49 +1692,52 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
         <v>120</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>75</v>
       </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
       <c r="V13">
         <v>1</v>
       </c>
       <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
         <v>240</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>110</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
         <v>34</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
       <c r="E14">
         <v>0</v>
       </c>
@@ -1613,23 +1751,23 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>11044</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12021</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
         <v>70</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>10</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14">
         <v>0</v>
       </c>
@@ -1640,49 +1778,52 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
         <v>120</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>75</v>
       </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
       <c r="V14">
         <v>1</v>
       </c>
       <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
         <v>240</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>110</v>
       </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
       <c r="Z14">
         <v>0</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
         <v>28</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
       <c r="E15">
         <v>0</v>
       </c>
@@ -1696,23 +1837,23 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>11044</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>12021</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
         <v>70</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>10</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
       <c r="O15">
         <v>0</v>
       </c>
@@ -1723,49 +1864,52 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
         <v>120</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>75</v>
       </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
       <c r="V15">
         <v>1</v>
       </c>
       <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
         <v>240</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>110</v>
       </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
         <v>40</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
       <c r="E16">
         <v>0</v>
       </c>
@@ -1779,23 +1923,23 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>11044</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>12021</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
         <v>70</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>10</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
       <c r="O16">
         <v>0</v>
       </c>
@@ -1806,52 +1950,55 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="T16">
         <v>120</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>75</v>
       </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
       <c r="V16">
         <v>1</v>
       </c>
       <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
         <v>240</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>110</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
       <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
         <v>72</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>54</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
       <c r="F17">
         <v>0</v>
       </c>
@@ -1871,51 +2018,54 @@
         <v>0</v>
       </c>
       <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>200</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>15</v>
-      </c>
-      <c r="N17">
-        <v>3</v>
       </c>
       <c r="O17">
         <v>3</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>15</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>130</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>100</v>
       </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
       <c r="V17">
         <v>1</v>
       </c>
       <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
         <v>100</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>110</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
         <v>0</v>
       </c>
     </row>

--- a/Plan/Table/Live_Data/09.Monster_Table.xlsx
+++ b/Plan/Table/Live_Data/09.Monster_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15FFC04E-0112-4B37-ACF4-AB4C348C1043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A06FAD7D-5441-413D-87E4-1C4AAE4C2FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8CAC9B2D-78A7-4860-98D2-AFAFEB7FD5DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7E3B3BFD-DF74-4894-AD5B-B9FC7EC7A444}"/>
   </bookViews>
   <sheets>
     <sheet name="09.Monster_Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -141,6 +141,102 @@
   </si>
   <si>
     <t>monster_goblin_des_16</t>
+  </si>
+  <si>
+    <t>monster_skeleton_name_1</t>
+  </si>
+  <si>
+    <t>monster_skeleton_des_1</t>
+  </si>
+  <si>
+    <t>monster_skeleton_name_2</t>
+  </si>
+  <si>
+    <t>monster_skeleton_des_2</t>
+  </si>
+  <si>
+    <t>monster_skeleton_name_3</t>
+  </si>
+  <si>
+    <t>monster_skeleton_des_3</t>
+  </si>
+  <si>
+    <t>monster_skeleton_name_4</t>
+  </si>
+  <si>
+    <t>monster_skeleton_des_4</t>
+  </si>
+  <si>
+    <t>monster_skeleton_name_5</t>
+  </si>
+  <si>
+    <t>monster_skeleton_des_5</t>
+  </si>
+  <si>
+    <t>monster_skeleton_name_6</t>
+  </si>
+  <si>
+    <t>monster_skeleton_des_6</t>
+  </si>
+  <si>
+    <t>monster_skeleton_name_7</t>
+  </si>
+  <si>
+    <t>monster_skeleton_des_7</t>
+  </si>
+  <si>
+    <t>monster_skeleton_name_8</t>
+  </si>
+  <si>
+    <t>monster_skeleton_des_8</t>
+  </si>
+  <si>
+    <t>monster_skeleton_name_9</t>
+  </si>
+  <si>
+    <t>monster_skeleton_des_9</t>
+  </si>
+  <si>
+    <t>monster_skeleton_name_10</t>
+  </si>
+  <si>
+    <t>monster_skeleton_des_10</t>
+  </si>
+  <si>
+    <t>monster_skeleton_name_11</t>
+  </si>
+  <si>
+    <t>monster_skeleton_des_11</t>
+  </si>
+  <si>
+    <t>monster_skeleton_name_12</t>
+  </si>
+  <si>
+    <t>monster_skeleton_des_12</t>
+  </si>
+  <si>
+    <t>monster_skeleton_name_13</t>
+  </si>
+  <si>
+    <t>monster_skeleton_des_13</t>
+  </si>
+  <si>
+    <t>monster_skeleton_name_14</t>
+  </si>
+  <si>
+    <t>monster_skeleton_des_14</t>
+  </si>
+  <si>
+    <t>monster_skeleton_name_15</t>
+  </si>
+  <si>
+    <t>monster_skeleton_des_15</t>
+  </si>
+  <si>
+    <t>monster_skeleton_name_16</t>
+  </si>
+  <si>
+    <t>monster_skeleton_des_16</t>
   </si>
   <si>
     <t>trait_id_1</t>
@@ -598,8 +694,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990ED6FE-6415-4139-84F6-3EAD94D10E86}">
-  <dimension ref="A1:AB17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24328128-9F2A-47FD-9F35-456D90E3EDEC}">
+  <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AB1048576"/>
@@ -618,79 +714,79 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="L1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="M1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="N1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="O1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="P1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="Q1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="R1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="S1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="T1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="U1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="V1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="W1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="X1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="Y1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="Z1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="AA1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="AB1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
@@ -2066,6 +2162,1382 @@
         <v>0</v>
       </c>
       <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>11045</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>11046</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>11005</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>11045</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>34</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>11045</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>11045</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>11045</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>11045</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26">
+        <v>34</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>11045</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>11045</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28">
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>11045</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>11004</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>34</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>11004</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31">
+        <v>28</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>11004</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>11004</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33">
+        <v>72</v>
+      </c>
+      <c r="E33">
+        <v>54</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
         <v>0</v>
       </c>
     </row>
